--- a/Dr_Nawaz_Project_Line_Graph/Book1.xlsx
+++ b/Dr_Nawaz_Project_Line_Graph/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Ka_Chila\Data_Science_Ammar\Dr_Nawaz_Project_Line_Graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B33FAE8-F32F-4A1E-81A5-3A29B9114551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C1452B-4DCB-4E05-ABD3-7F86D0248146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{91580698-2B74-418B-B570-EBF1C781EDBE}"/>
   </bookViews>
@@ -68,18 +68,6 @@
     <t>Day7</t>
   </si>
   <si>
-    <t>Day21</t>
-  </si>
-  <si>
-    <t>leaf_Fresh_Weight</t>
-  </si>
-  <si>
-    <t>stem_Fresh_Weight</t>
-  </si>
-  <si>
-    <t>hypocotyl_Fresh_Weight</t>
-  </si>
-  <si>
     <t>days</t>
   </si>
   <si>
@@ -87,6 +75,18 @@
   </si>
   <si>
     <t>treatment</t>
+  </si>
+  <si>
+    <t>Day28</t>
+  </si>
+  <si>
+    <t>Stem</t>
+  </si>
+  <si>
+    <t>Leaf</t>
+  </si>
+  <si>
+    <t>Hypocotyl</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,22 +478,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>6</v>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>7</v>
@@ -984,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
@@ -1024,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>7</v>
@@ -1164,7 +1164,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>5</v>
@@ -1184,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>6</v>
@@ -1204,7 +1204,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>7</v>
@@ -1344,7 +1344,7 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>5</v>
@@ -1364,7 +1364,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>6</v>
@@ -1384,7 +1384,7 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>7</v>

--- a/Dr_Nawaz_Project_Line_Graph/Book1.xlsx
+++ b/Dr_Nawaz_Project_Line_Graph/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Ka_Chila\Data_Science_Ammar\Dr_Nawaz_Project_Line_Graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C1452B-4DCB-4E05-ABD3-7F86D0248146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A3D1B6-9280-4DD3-8CC4-C8A8C7BA5170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{91580698-2B74-418B-B570-EBF1C781EDBE}"/>
   </bookViews>
@@ -93,10 +93,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -130,6 +137,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,19 +473,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04BCEAE-B0DE-433E-959F-429AF3C8D9FE}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -499,7 +508,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,17 +518,20 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,17 +541,20 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,17 +564,20 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>2.4E-2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,17 +587,20 @@
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>0.2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>0.13</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,17 +610,20 @@
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>0.2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>0.17</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,17 +633,20 @@
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>0.22</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>0.22</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,17 +656,20 @@
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>0.84</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>0.33</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,17 +679,20 @@
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>0.32</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>0.3</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,17 +702,20 @@
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>0.7</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>0.48</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -689,17 +725,17 @@
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>1.9E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -709,17 +745,17 @@
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -729,17 +765,17 @@
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>1.4E-2</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -749,17 +785,17 @@
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>0.26</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>0.13</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>0.16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -769,17 +805,17 @@
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>0.17</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>0.18</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -789,13 +825,13 @@
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>0.25</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>0.19</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -809,13 +845,13 @@
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>0.88</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>0.35</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>0.45</v>
       </c>
     </row>
@@ -829,13 +865,13 @@
       <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>0.4</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>0.37</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>0.22</v>
       </c>
     </row>
@@ -849,13 +885,13 @@
       <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>0.78</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>0.52</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>0.63</v>
       </c>
     </row>
@@ -869,13 +905,13 @@
       <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>1.2E-2</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>1.9E-2</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -889,13 +925,13 @@
       <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
@@ -909,13 +945,13 @@
       <c r="C22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>1.2E-2</v>
       </c>
     </row>
@@ -929,14 +965,14 @@
       <c r="C23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>0.23</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>0.11</v>
       </c>
-      <c r="F23">
-        <v>0.11</v>
+      <c r="F23" s="4">
+        <v>0.12</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -949,14 +985,14 @@
       <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>0.13</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <v>0.11</v>
       </c>
-      <c r="F24">
-        <v>0.12</v>
+      <c r="F24" s="4">
+        <v>0.1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -969,14 +1005,14 @@
       <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>0.19</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F25">
-        <v>0.1</v>
+      <c r="F25" s="4">
+        <v>0.11</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -989,13 +1025,13 @@
       <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
         <v>0.72</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="4">
         <v>0.31</v>
       </c>
     </row>
@@ -1009,13 +1045,13 @@
       <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>0.32</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
         <v>0.26</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="4">
         <v>0.15</v>
       </c>
     </row>
@@ -1029,13 +1065,13 @@
       <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <v>0.63</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
         <v>0.45</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="4">
         <v>0.49</v>
       </c>
     </row>
@@ -1049,13 +1085,13 @@
       <c r="C29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="4">
         <v>1.2E-2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -1069,13 +1105,13 @@
       <c r="C30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="4">
         <v>2E-3</v>
       </c>
     </row>
@@ -1089,13 +1125,13 @@
       <c r="C31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
@@ -1109,14 +1145,14 @@
       <c r="C32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="4">
         <v>0.22</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="4">
         <v>0.09</v>
       </c>
-      <c r="F32">
-        <v>0.09</v>
+      <c r="F32" s="4">
+        <v>0.13</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1129,14 +1165,14 @@
       <c r="C33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="4">
         <v>0.11</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F33">
-        <v>0.13</v>
+      <c r="F33" s="4">
+        <v>0.11</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1149,14 +1185,14 @@
       <c r="C34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="4">
         <v>0.19</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="4">
         <v>0.15</v>
       </c>
-      <c r="F34">
-        <v>0.11</v>
+      <c r="F34" s="4">
+        <v>0.09</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1169,13 +1205,13 @@
       <c r="C35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="4">
         <v>0.7</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="4">
         <v>0.27</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="4">
         <v>0.41</v>
       </c>
     </row>
@@ -1189,13 +1225,13 @@
       <c r="C36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="4">
         <v>0.34</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="4">
         <v>0.32</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="4">
         <v>0.18</v>
       </c>
     </row>
@@ -1209,13 +1245,13 @@
       <c r="C37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="4">
         <v>0.7</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="4">
         <v>0.42</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="4">
         <v>0.51</v>
       </c>
     </row>
@@ -1229,13 +1265,13 @@
       <c r="C38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="4">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -1249,13 +1285,13 @@
       <c r="C39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -1269,13 +1305,13 @@
       <c r="C40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="4">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -1289,13 +1325,13 @@
       <c r="C41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="4">
         <v>0.17</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="4">
         <v>0.11</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="4">
         <v>0.11</v>
       </c>
     </row>
@@ -1309,13 +1345,13 @@
       <c r="C42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="4">
         <v>0.12</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="4">
         <v>0.13</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="4">
         <v>0.1</v>
       </c>
     </row>
@@ -1329,13 +1365,13 @@
       <c r="C43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="4">
         <v>0.18</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="4">
         <v>0.13</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="4">
         <v>0.11</v>
       </c>
     </row>
@@ -1349,13 +1385,13 @@
       <c r="C44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="4">
         <v>0.69</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="4">
         <v>0.21</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="4">
         <v>0.27</v>
       </c>
     </row>
@@ -1369,13 +1405,13 @@
       <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="4">
         <v>0.19</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="4">
         <v>0.13</v>
       </c>
     </row>
@@ -1389,13 +1425,13 @@
       <c r="C46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="4">
         <v>0.59</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="4">
         <v>0.36</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="4">
         <v>0.49</v>
       </c>
     </row>
